--- a/biology/Botanique/Lloyd_Herbert_Shinners/Lloyd_Herbert_Shinners.xlsx
+++ b/biology/Botanique/Lloyd_Herbert_Shinners/Lloyd_Herbert_Shinners.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lloyd Herbert Shinners (22 septembre 1918 – 16 février 1971) est un botaniste canadien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lloyd Herbert Shinners est né le 22 septembre 1918 à Bluesky en Alberta où son père avait emmené sa famille en 1907 après avoir quitté le Wisconsin aux États-Unis[1]. À l'âge de 5 ans, il retourne avec ses parents s'installer à Milwaukee dans le Wisconsin où il suit sa scolarité jusqu'à l'obtention d'un doctorat en 1943 à l'université du Wisconsin de Madison[1].
-En 1945, il se rend à Dallas au Texas où il travaille comme assistant de recherche à l'université méthodiste du Sud[1]. Nommé directeur de l'herbarium de l'université, il s'attelle à en faire l'un des plus importants du Sud des États-Unis, passant de 20 000 à 340 000 specimens après 23 ans sous sa direction[1],[2]. En 1962, après avoir eu des difficultés à publier un article, il fonde la revue scientifique SIDA, Contributions to Botany[2].
-Atteint de diabète, il meurt le 16 février 1971 à Dallas après une courte hospitalisation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lloyd Herbert Shinners est né le 22 septembre 1918 à Bluesky en Alberta où son père avait emmené sa famille en 1907 après avoir quitté le Wisconsin aux États-Unis. À l'âge de 5 ans, il retourne avec ses parents s'installer à Milwaukee dans le Wisconsin où il suit sa scolarité jusqu'à l'obtention d'un doctorat en 1943 à l'université du Wisconsin de Madison.
+En 1945, il se rend à Dallas au Texas où il travaille comme assistant de recherche à l'université méthodiste du Sud. Nommé directeur de l'herbarium de l'université, il s'attelle à en faire l'un des plus importants du Sud des États-Unis, passant de 20 000 à 340 000 specimens après 23 ans sous sa direction,. En 1962, après avoir eu des difficultés à publier un article, il fonde la revue scientifique SIDA, Contributions to Botany.
+Atteint de diabète, il meurt le 16 février 1971 à Dallas après une courte hospitalisation.
 </t>
         </is>
       </c>
